--- a/Downer/29267/F2LSIP ITP 3 - Drainage (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 3 - Drainage (reviewed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cfprojects.sharepoint.com/sites/Projects2024/Shared Documents/Projects/24001 TT1 Levin to Foxton/5.0 Construction/3.0 Contract Management/7.0 Quality/1.0 ITP Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9E188890-919D-4B4D-BEF2-3D27EAE31C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109DD66C-692E-480E-98BF-2B6910CD1B1D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{9E188890-919D-4B4D-BEF2-3D27EAE31C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221BC149-3016-4B8B-8F93-C3B8C8CADCEA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>Downer Approval</t>
   </si>
   <si>
-    <t>Matt Tipping</t>
-  </si>
-  <si>
     <t>Customer Approval</t>
   </si>
   <si>
@@ -778,7 +775,10 @@
     <t>PM/ER</t>
   </si>
   <si>
-    <t>Please add Geotextile - The bedding shall be enveloped in geotextile filter fabric (Terram 1000 or Bidim A29) that complies with TNZ F/7 geotextile, minimum strength class C, and minimum infiltration Class 1.</t>
+    <t>Matt Erard</t>
+  </si>
+  <si>
+    <t>Survey As-Built</t>
   </si>
   <si>
     <r>
@@ -808,18 +808,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Please add - Material Grading to meet NZS3725:2007 Table 6 and Table 7</t>
+      <t xml:space="preserve">Material Grading as per NZS 3725:2007 </t>
     </r>
-  </si>
-  <si>
-    <t>Please add Backfill testing between crown bedding and bottom of Pavement if required.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -827,20 +823,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Survey</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Placing Geotextile fabric under rip rap </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> As-Built</t>
+      <t>The bedding shall be enveloped in geotextile filter fabric (Terram 1000 or Bidim A29) that complies with TNZ F/7 geotextile, minimum strength class C, and minimum infiltration Class 1.</t>
     </r>
   </si>
   <si>
-    <t>Please add Testing of Trench Foundation as per NZTA F3 3.6 - Unsuitable Foundation Material.</t>
+    <t xml:space="preserve">
+NZTA F/3 - 3.6 - Unsuitable Foundation Material.
+Unsuitable material shall be removed to a depth of 600mm (or any greater) and replaced with approved material in layers of 150mm loose depth whch shall be compacted as specified in  either the relevant standard or contract documents.</t>
   </si>
 </sst>
 </file>
@@ -851,7 +858,7 @@
     <numFmt numFmtId="164" formatCode="[Red]&quot;◄ Error&quot;;[Red]&quot;◄ Error&quot;;&quot;◄ [OK]&quot;"/>
     <numFmt numFmtId="165" formatCode="[Red]&quot;▲ Error&quot;;[Red]&quot;▲ Error&quot;;&quot;▲ [OK]&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1135,6 +1142,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -2527,7 +2541,7 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2705,8 +2719,101 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2792,102 +2899,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2959,6 +2970,18 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3085,15 +3108,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>603331</xdr:colOff>
+      <xdr:colOff>520782</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>321311</xdr:rowOff>
+      <xdr:rowOff>529671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5794375</xdr:colOff>
+      <xdr:colOff>5724526</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1866403</xdr:rowOff>
+      <xdr:rowOff>2074763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3116,12 +3139,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4532394" y="8387795"/>
-          <a:ext cx="5191044" cy="1545092"/>
+          <a:off x="4618516" y="18140999"/>
+          <a:ext cx="5200569" cy="1545092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152553</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1213245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3029347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3954424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD4D144-77EB-11B6-2425-DF47698CF1F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4250287" y="4656136"/>
+          <a:ext cx="2876794" cy="2744354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3297237</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1236752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6069361</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3935809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5887E9D0-0644-07ED-3C4D-4D36BD542CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7394971" y="4679643"/>
+          <a:ext cx="2768949" cy="2702232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>817166</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>505619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5344716</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2255837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6E8AC7-B137-B8A1-DEA1-461D66491962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="8056166"/>
+          <a:ext cx="4527550" cy="1756568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>912813</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2361417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5341144</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4799349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FEDF6A-3D8C-E087-9884-F2CA0DB9D190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010547" y="9911964"/>
+          <a:ext cx="4428331" cy="2437932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3361,100 +3580,100 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="117" t="s">
+      <c r="B3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="118"/>
-      <c r="J3" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3462,18 +3681,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3493,18 +3712,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="B6" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3512,32 +3731,32 @@
         <v>18</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72" t="s">
+      <c r="B7" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3553,14 +3772,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3576,20 +3795,20 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="110">
         <v>1</v>
       </c>
-      <c r="G9" s="81"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3609,18 +3828,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
       <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
@@ -3634,24 +3853,24 @@
         <v>42</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="2" t="s">
         <v>44</v>
       </c>
@@ -3665,24 +3884,24 @@
         <v>47</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
+      <c r="B12" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
@@ -3698,14 +3917,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
@@ -3721,18 +3940,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3748,14 +3967,14 @@
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
       <c r="H15" s="2" t="s">
         <v>63</v>
       </c>
@@ -3771,22 +3990,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="68">
         <v>45036</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
@@ -3800,26 +4019,26 @@
         <v>72</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="23" t="s">
         <v>75</v>
       </c>
@@ -3829,41 +4048,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="104"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
     </row>
-    <row r="19" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="s">
+    <row r="19" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="106"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="108" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="13" t="s">
         <v>68</v>
       </c>
@@ -3871,26 +4090,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
+    <row r="20" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="89"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="91" t="s">
+      <c r="D20" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="3" t="s">
         <v>68</v>
       </c>
@@ -3898,24 +4117,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="94"/>
+    <row r="21" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="87"/>
       <c r="C21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="97"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3923,32 +4142,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -3964,6 +4160,29 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -3985,93 +4204,93 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="99.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="141" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="C1" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="D1" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="E1" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="F1" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="G1" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+    </row>
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="142"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="I2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
+      <c r="J2" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="47" t="s">
         <v>115</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>116</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>33</v>
@@ -4080,17 +4299,17 @@
         <v>32</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="49"/>
     </row>
-    <row r="4" spans="1:11" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -4102,24 +4321,24 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>54</v>
@@ -4128,29 +4347,29 @@
         <v>53</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>54</v>
@@ -4159,29 +4378,29 @@
         <v>53</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>54</v>
@@ -4190,29 +4409,29 @@
         <v>53</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>54</v>
@@ -4221,29 +4440,29 @@
         <v>53</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>54</v>
@@ -4252,29 +4471,29 @@
         <v>53</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="40"/>
     </row>
-    <row r="10" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="F10" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>54</v>
@@ -4283,29 +4502,29 @@
         <v>53</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="40"/>
     </row>
-    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="46" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>54</v>
@@ -4314,29 +4533,29 @@
         <v>53</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="40"/>
     </row>
-    <row r="12" spans="1:11" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="323" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="F12" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>54</v>
@@ -4345,17 +4564,19 @@
         <v>53</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="1:11" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="390.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="34" t="s">
+        <v>211</v>
+      </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="59" t="s">
-        <v>209</v>
+      <c r="D13" s="144" t="s">
+        <v>212</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -4365,24 +4586,24 @@
       <c r="J13" s="34"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>54</v>
@@ -4391,17 +4612,17 @@
         <v>53</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="40"/>
     </row>
-    <row r="15" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
@@ -4413,24 +4634,24 @@
       <c r="J15" s="54"/>
       <c r="K15" s="55"/>
     </row>
-    <row r="16" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="D16" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>33</v>
@@ -4439,17 +4660,17 @@
         <v>32</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="40"/>
     </row>
-    <row r="17" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="51"/>
@@ -4461,24 +4682,24 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
     </row>
-    <row r="18" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>180</v>
-      </c>
       <c r="D18" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="F18" s="34" t="s">
         <v>167</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>168</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>70</v>
@@ -4487,29 +4708,29 @@
         <v>69</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="F19" s="34" t="s">
         <v>193</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>194</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>4</v>
@@ -4523,24 +4744,24 @@
       <c r="J19" s="34"/>
       <c r="K19" s="40"/>
     </row>
-    <row r="20" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>169</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>170</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>70</v>
@@ -4549,16 +4770,16 @@
         <v>69</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="40"/>
     </row>
-    <row r="21" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="76" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="42"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="146" t="s">
         <v>213</v>
       </c>
       <c r="E21" s="34"/>
@@ -4569,24 +4790,24 @@
       <c r="J21" s="34"/>
       <c r="K21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="46" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>175</v>
-      </c>
       <c r="E22" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>33</v>
@@ -4595,29 +4816,29 @@
         <v>32</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="34"/>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="156" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="170" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="F23" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>178</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>70</v>
@@ -4626,150 +4847,135 @@
         <v>69</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="40"/>
+    <row r="24" spans="1:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="J24" s="34"/>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="69.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="40"/>
+        <v>207</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="41"/>
+    <row r="27" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="124"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="125"/>
+      <c r="K28" s="132"/>
     </row>
-    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="28" t="s">
+    <row r="29" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="126"/>
-      <c r="K29" s="133"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A29:E30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
@@ -4812,25 +5018,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a07732dbeabed3b1f6f40e9b0d46319d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa458ea88e7c8ed8c3c87fd8b1af69c0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc488396aafce8f105aa0f243fa0ab32">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" xmlns:ns4="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf06c0961caa0653dafb542b2e70858f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
     <xsd:import namespace="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <xsd:import namespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4843,6 +5035,12 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4871,6 +5069,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50964440-26cf-4116-9cc4-0a071263a07c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4902,6 +5129,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11e497d4-0200-4ae9-a4de-6fa1623e1595}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5003,10 +5245,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECCFD85B-90B3-4AE9-A494-1C21B62F6C2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5024,12 +5298,18 @@
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
     <ds:schemaRef ds:uri="eb05f8a5-c42a-4225-8f04-b90f859b0195"/>
     <ds:schemaRef ds:uri="cfb384ca-3992-46ff-8b76-964f3ce32752"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50AF82BF-AA87-4F99-9A6B-1C16C8EDBF10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
